--- a/data/sample_data_final.xlsx
+++ b/data/sample_data_final.xlsx
@@ -311,7 +311,7 @@
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I13" activeCellId="0" sqref="I13"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
